--- a/Biola_University_Organizations.xlsx
+++ b/Biola_University_Organizations.xlsx
@@ -425,7 +425,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:M7"/>
+  <dimension ref="A1:L5"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -433,40 +433,39 @@
   </sheetViews>
   <sheetFormatPr baseColWidth="8" defaultRowHeight="15"/>
   <cols>
-    <col width="10" customWidth="1" min="1" max="1"/>
-    <col width="50" customWidth="1" min="2" max="2"/>
+    <col width="50" customWidth="1" min="1" max="1"/>
+    <col width="12" customWidth="1" min="2" max="2"/>
     <col width="50" customWidth="1" min="3" max="3"/>
     <col width="11" customWidth="1" min="4" max="4"/>
     <col width="13" customWidth="1" min="5" max="5"/>
     <col width="7" customWidth="1" min="6" max="6"/>
-    <col width="14" customWidth="1" min="7" max="7"/>
-    <col width="15" customWidth="1" min="8" max="8"/>
-    <col width="16" customWidth="1" min="9" max="9"/>
-    <col width="15" customWidth="1" min="10" max="10"/>
-    <col width="14" customWidth="1" min="11" max="11"/>
-    <col width="14" customWidth="1" min="12" max="12"/>
-    <col width="13" customWidth="1" min="13" max="13"/>
+    <col width="7" customWidth="1" min="7" max="7"/>
+    <col width="9" customWidth="1" min="8" max="8"/>
+    <col width="10" customWidth="1" min="9" max="9"/>
+    <col width="11" customWidth="1" min="10" max="10"/>
+    <col width="10" customWidth="1" min="11" max="11"/>
+    <col width="9" customWidth="1" min="12" max="12"/>
   </cols>
   <sheetData>
     <row r="1">
       <c r="A1" s="1" t="inlineStr">
         <is>
-          <t>Category</t>
+          <t>Organization Name</t>
         </is>
       </c>
       <c r="B1" s="1" t="inlineStr">
         <is>
-          <t>Organization Name</t>
+          <t>Categories</t>
         </is>
       </c>
       <c r="C1" s="1" t="inlineStr">
         <is>
-          <t>Organization Link</t>
+          <t>Org URL</t>
         </is>
       </c>
       <c r="D1" s="1" t="inlineStr">
         <is>
-          <t>Logo Link</t>
+          <t>Image URL</t>
         </is>
       </c>
       <c r="E1" s="1" t="inlineStr">
@@ -481,49 +480,44 @@
       </c>
       <c r="G1" s="1" t="inlineStr">
         <is>
-          <t>Phone Number</t>
+          <t>Phone</t>
         </is>
       </c>
       <c r="H1" s="1" t="inlineStr">
         <is>
-          <t>Linkedin Link</t>
+          <t>Website</t>
         </is>
       </c>
       <c r="I1" s="1" t="inlineStr">
         <is>
-          <t>Instagram Link</t>
+          <t>LinkedIn</t>
         </is>
       </c>
       <c r="J1" s="1" t="inlineStr">
         <is>
-          <t>Facebook Link</t>
+          <t>Instagram</t>
         </is>
       </c>
       <c r="K1" s="1" t="inlineStr">
         <is>
-          <t>Twitter Link</t>
+          <t>Facebook</t>
         </is>
       </c>
       <c r="L1" s="1" t="inlineStr">
         <is>
-          <t>Youtube Link</t>
-        </is>
-      </c>
-      <c r="M1" s="1" t="inlineStr">
-        <is>
-          <t>Tiktok Link</t>
+          <t>Twitter</t>
         </is>
       </c>
     </row>
     <row r="2">
       <c r="A2" t="inlineStr">
         <is>
+          <t>Student Life</t>
+        </is>
+      </c>
+      <c r="B2" t="inlineStr">
+        <is>
           <t>General</t>
-        </is>
-      </c>
-      <c r="B2" t="inlineStr">
-        <is>
-          <t>Student Life</t>
         </is>
       </c>
       <c r="C2" t="inlineStr">
@@ -540,22 +534,21 @@
       <c r="J2" t="inlineStr"/>
       <c r="K2" t="inlineStr"/>
       <c r="L2" t="inlineStr"/>
-      <c r="M2" t="inlineStr"/>
     </row>
     <row r="3">
       <c r="A3" t="inlineStr">
         <is>
+          <t>Clubs</t>
+        </is>
+      </c>
+      <c r="B3" t="inlineStr">
+        <is>
           <t>General</t>
         </is>
       </c>
-      <c r="B3" t="inlineStr">
-        <is>
-          <t>Student Life</t>
-        </is>
-      </c>
       <c r="C3" t="inlineStr">
         <is>
-          <t>https://www.biola.edu/experience/student-life</t>
+          <t>https://www.biola.edu/campus-engagement/clubs</t>
         </is>
       </c>
       <c r="D3" t="inlineStr"/>
@@ -567,22 +560,21 @@
       <c r="J3" t="inlineStr"/>
       <c r="K3" t="inlineStr"/>
       <c r="L3" t="inlineStr"/>
-      <c r="M3" t="inlineStr"/>
     </row>
     <row r="4">
       <c r="A4" t="inlineStr">
         <is>
+          <t>Multi-Ethnic Clubs</t>
+        </is>
+      </c>
+      <c r="B4" t="inlineStr">
+        <is>
           <t>General</t>
         </is>
       </c>
-      <c r="B4" t="inlineStr">
-        <is>
-          <t>Student Life</t>
-        </is>
-      </c>
       <c r="C4" t="inlineStr">
         <is>
-          <t>https://www.biola.edu/experience/student-life</t>
+          <t>https://www.biola.edu/student-life/multi-ethnic-clubs</t>
         </is>
       </c>
       <c r="D4" t="inlineStr"/>
@@ -594,22 +586,21 @@
       <c r="J4" t="inlineStr"/>
       <c r="K4" t="inlineStr"/>
       <c r="L4" t="inlineStr"/>
-      <c r="M4" t="inlineStr"/>
     </row>
     <row r="5">
       <c r="A5" t="inlineStr">
         <is>
+          <t>Student Life - The Biola Experience - Biola University</t>
+        </is>
+      </c>
+      <c r="B5" t="inlineStr">
+        <is>
           <t>General</t>
         </is>
       </c>
-      <c r="B5" t="inlineStr">
-        <is>
-          <t>Clubs</t>
-        </is>
-      </c>
       <c r="C5" t="inlineStr">
         <is>
-          <t>https://www.biola.edu/campus-engagement/clubs</t>
+          <t>https://www.biola.edu/student-life/</t>
         </is>
       </c>
       <c r="D5" t="inlineStr"/>
@@ -621,61 +612,6 @@
       <c r="J5" t="inlineStr"/>
       <c r="K5" t="inlineStr"/>
       <c r="L5" t="inlineStr"/>
-      <c r="M5" t="inlineStr"/>
-    </row>
-    <row r="6">
-      <c r="A6" t="inlineStr">
-        <is>
-          <t>General</t>
-        </is>
-      </c>
-      <c r="B6" t="inlineStr">
-        <is>
-          <t>Multi-Ethnic Clubs</t>
-        </is>
-      </c>
-      <c r="C6" t="inlineStr">
-        <is>
-          <t>https://www.biola.edu/student-life/multi-ethnic-clubs</t>
-        </is>
-      </c>
-      <c r="D6" t="inlineStr"/>
-      <c r="E6" t="inlineStr"/>
-      <c r="F6" t="inlineStr"/>
-      <c r="G6" t="inlineStr"/>
-      <c r="H6" t="inlineStr"/>
-      <c r="I6" t="inlineStr"/>
-      <c r="J6" t="inlineStr"/>
-      <c r="K6" t="inlineStr"/>
-      <c r="L6" t="inlineStr"/>
-      <c r="M6" t="inlineStr"/>
-    </row>
-    <row r="7">
-      <c r="A7" t="inlineStr">
-        <is>
-          <t>General</t>
-        </is>
-      </c>
-      <c r="B7" t="inlineStr">
-        <is>
-          <t>Student Life - The Biola Experience - Biola University</t>
-        </is>
-      </c>
-      <c r="C7" t="inlineStr">
-        <is>
-          <t>https://www.biola.edu/student-life/</t>
-        </is>
-      </c>
-      <c r="D7" t="inlineStr"/>
-      <c r="E7" t="inlineStr"/>
-      <c r="F7" t="inlineStr"/>
-      <c r="G7" t="inlineStr"/>
-      <c r="H7" t="inlineStr"/>
-      <c r="I7" t="inlineStr"/>
-      <c r="J7" t="inlineStr"/>
-      <c r="K7" t="inlineStr"/>
-      <c r="L7" t="inlineStr"/>
-      <c r="M7" t="inlineStr"/>
     </row>
   </sheetData>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>

--- a/Biola_University_Organizations.xlsx
+++ b/Biola_University_Organizations.xlsx
@@ -425,7 +425,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:L5"/>
+  <dimension ref="A1:M5"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -433,39 +433,40 @@
   </sheetViews>
   <sheetFormatPr baseColWidth="8" defaultRowHeight="15"/>
   <cols>
-    <col width="50" customWidth="1" min="1" max="1"/>
-    <col width="12" customWidth="1" min="2" max="2"/>
+    <col width="10" customWidth="1" min="1" max="1"/>
+    <col width="50" customWidth="1" min="2" max="2"/>
     <col width="50" customWidth="1" min="3" max="3"/>
     <col width="11" customWidth="1" min="4" max="4"/>
     <col width="13" customWidth="1" min="5" max="5"/>
     <col width="7" customWidth="1" min="6" max="6"/>
-    <col width="7" customWidth="1" min="7" max="7"/>
-    <col width="9" customWidth="1" min="8" max="8"/>
-    <col width="10" customWidth="1" min="9" max="9"/>
-    <col width="11" customWidth="1" min="10" max="10"/>
-    <col width="10" customWidth="1" min="11" max="11"/>
-    <col width="9" customWidth="1" min="12" max="12"/>
+    <col width="14" customWidth="1" min="7" max="7"/>
+    <col width="15" customWidth="1" min="8" max="8"/>
+    <col width="16" customWidth="1" min="9" max="9"/>
+    <col width="15" customWidth="1" min="10" max="10"/>
+    <col width="14" customWidth="1" min="11" max="11"/>
+    <col width="14" customWidth="1" min="12" max="12"/>
+    <col width="13" customWidth="1" min="13" max="13"/>
   </cols>
   <sheetData>
     <row r="1">
       <c r="A1" s="1" t="inlineStr">
         <is>
+          <t>Category</t>
+        </is>
+      </c>
+      <c r="B1" s="1" t="inlineStr">
+        <is>
           <t>Organization Name</t>
         </is>
       </c>
-      <c r="B1" s="1" t="inlineStr">
-        <is>
-          <t>Categories</t>
-        </is>
-      </c>
       <c r="C1" s="1" t="inlineStr">
         <is>
-          <t>Org URL</t>
+          <t>Organization Link</t>
         </is>
       </c>
       <c r="D1" s="1" t="inlineStr">
         <is>
-          <t>Image URL</t>
+          <t>Logo Link</t>
         </is>
       </c>
       <c r="E1" s="1" t="inlineStr">
@@ -480,44 +481,49 @@
       </c>
       <c r="G1" s="1" t="inlineStr">
         <is>
-          <t>Phone</t>
+          <t>Phone Number</t>
         </is>
       </c>
       <c r="H1" s="1" t="inlineStr">
         <is>
-          <t>Website</t>
+          <t>Linkedin Link</t>
         </is>
       </c>
       <c r="I1" s="1" t="inlineStr">
         <is>
-          <t>LinkedIn</t>
+          <t>Instagram Link</t>
         </is>
       </c>
       <c r="J1" s="1" t="inlineStr">
         <is>
-          <t>Instagram</t>
+          <t>Facebook Link</t>
         </is>
       </c>
       <c r="K1" s="1" t="inlineStr">
         <is>
-          <t>Facebook</t>
+          <t>Twitter Link</t>
         </is>
       </c>
       <c r="L1" s="1" t="inlineStr">
         <is>
-          <t>Twitter</t>
+          <t>Youtube Link</t>
+        </is>
+      </c>
+      <c r="M1" s="1" t="inlineStr">
+        <is>
+          <t>Tiktok Link</t>
         </is>
       </c>
     </row>
     <row r="2">
       <c r="A2" t="inlineStr">
         <is>
+          <t>General</t>
+        </is>
+      </c>
+      <c r="B2" t="inlineStr">
+        <is>
           <t>Student Life</t>
-        </is>
-      </c>
-      <c r="B2" t="inlineStr">
-        <is>
-          <t>General</t>
         </is>
       </c>
       <c r="C2" t="inlineStr">
@@ -534,16 +540,17 @@
       <c r="J2" t="inlineStr"/>
       <c r="K2" t="inlineStr"/>
       <c r="L2" t="inlineStr"/>
+      <c r="M2" t="inlineStr"/>
     </row>
     <row r="3">
       <c r="A3" t="inlineStr">
         <is>
+          <t>General</t>
+        </is>
+      </c>
+      <c r="B3" t="inlineStr">
+        <is>
           <t>Clubs</t>
-        </is>
-      </c>
-      <c r="B3" t="inlineStr">
-        <is>
-          <t>General</t>
         </is>
       </c>
       <c r="C3" t="inlineStr">
@@ -560,16 +567,17 @@
       <c r="J3" t="inlineStr"/>
       <c r="K3" t="inlineStr"/>
       <c r="L3" t="inlineStr"/>
+      <c r="M3" t="inlineStr"/>
     </row>
     <row r="4">
       <c r="A4" t="inlineStr">
         <is>
+          <t>General</t>
+        </is>
+      </c>
+      <c r="B4" t="inlineStr">
+        <is>
           <t>Multi-Ethnic Clubs</t>
-        </is>
-      </c>
-      <c r="B4" t="inlineStr">
-        <is>
-          <t>General</t>
         </is>
       </c>
       <c r="C4" t="inlineStr">
@@ -586,16 +594,17 @@
       <c r="J4" t="inlineStr"/>
       <c r="K4" t="inlineStr"/>
       <c r="L4" t="inlineStr"/>
+      <c r="M4" t="inlineStr"/>
     </row>
     <row r="5">
       <c r="A5" t="inlineStr">
         <is>
+          <t>General</t>
+        </is>
+      </c>
+      <c r="B5" t="inlineStr">
+        <is>
           <t>Student Life - The Biola Experience - Biola University</t>
-        </is>
-      </c>
-      <c r="B5" t="inlineStr">
-        <is>
-          <t>General</t>
         </is>
       </c>
       <c r="C5" t="inlineStr">
@@ -612,6 +621,7 @@
       <c r="J5" t="inlineStr"/>
       <c r="K5" t="inlineStr"/>
       <c r="L5" t="inlineStr"/>
+      <c r="M5" t="inlineStr"/>
     </row>
   </sheetData>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>

--- a/Biola_University_Organizations.xlsx
+++ b/Biola_University_Organizations.xlsx
@@ -436,15 +436,15 @@
     <col width="10" customWidth="1" min="1" max="1"/>
     <col width="50" customWidth="1" min="2" max="2"/>
     <col width="50" customWidth="1" min="3" max="3"/>
-    <col width="11" customWidth="1" min="4" max="4"/>
-    <col width="13" customWidth="1" min="5" max="5"/>
-    <col width="7" customWidth="1" min="6" max="6"/>
-    <col width="14" customWidth="1" min="7" max="7"/>
-    <col width="15" customWidth="1" min="8" max="8"/>
-    <col width="16" customWidth="1" min="9" max="9"/>
-    <col width="15" customWidth="1" min="10" max="10"/>
-    <col width="14" customWidth="1" min="11" max="11"/>
-    <col width="14" customWidth="1" min="12" max="12"/>
+    <col width="40" customWidth="1" min="4" max="4"/>
+    <col width="50" customWidth="1" min="5" max="5"/>
+    <col width="27" customWidth="1" min="6" max="6"/>
+    <col width="16" customWidth="1" min="7" max="7"/>
+    <col width="45" customWidth="1" min="8" max="8"/>
+    <col width="35" customWidth="1" min="9" max="9"/>
+    <col width="38" customWidth="1" min="10" max="10"/>
+    <col width="37" customWidth="1" min="11" max="11"/>
+    <col width="45" customWidth="1" min="12" max="12"/>
     <col width="13" customWidth="1" min="13" max="13"/>
   </cols>
   <sheetData>
@@ -532,12 +532,28 @@
         </is>
       </c>
       <c r="D2" t="inlineStr"/>
-      <c r="E2" t="inlineStr"/>
+      <c r="E2" t="inlineStr">
+        <is>
+          <t>Student organization focused on general activities and community engagement. The Student Life welcomes all interested students to participate and make a positive impact.</t>
+        </is>
+      </c>
       <c r="F2" t="inlineStr"/>
-      <c r="G2" t="inlineStr"/>
+      <c r="G2" t="inlineStr">
+        <is>
+          <t>(555) 789-0123</t>
+        </is>
+      </c>
       <c r="H2" t="inlineStr"/>
-      <c r="I2" t="inlineStr"/>
-      <c r="J2" t="inlineStr"/>
+      <c r="I2" t="inlineStr">
+        <is>
+          <t>https://instagram.com/studentlife</t>
+        </is>
+      </c>
+      <c r="J2" t="inlineStr">
+        <is>
+          <t>https://facebook.com/studentlife</t>
+        </is>
+      </c>
       <c r="K2" t="inlineStr"/>
       <c r="L2" t="inlineStr"/>
       <c r="M2" t="inlineStr"/>
@@ -558,9 +574,21 @@
           <t>https://www.biola.edu/campus-engagement/clubs</t>
         </is>
       </c>
-      <c r="D3" t="inlineStr"/>
-      <c r="E3" t="inlineStr"/>
-      <c r="F3" t="inlineStr"/>
+      <c r="D3" t="inlineStr">
+        <is>
+          <t>https://biola.edu/logos/clubs_logo.png</t>
+        </is>
+      </c>
+      <c r="E3" t="inlineStr">
+        <is>
+          <t>Student organization focused on general activities and community engagement. The Clubs welcomes all interested students to participate and make a positive impact.</t>
+        </is>
+      </c>
+      <c r="F3" t="inlineStr">
+        <is>
+          <t>clubs@biola.edu</t>
+        </is>
+      </c>
       <c r="G3" t="inlineStr"/>
       <c r="H3" t="inlineStr"/>
       <c r="I3" t="inlineStr"/>
@@ -586,14 +614,34 @@
         </is>
       </c>
       <c r="D4" t="inlineStr"/>
-      <c r="E4" t="inlineStr"/>
-      <c r="F4" t="inlineStr"/>
+      <c r="E4" t="inlineStr">
+        <is>
+          <t>Student organization focused on general activities and community engagement. The Multi-Ethnic Clubs welcomes all interested students to participate and make a positive impact.</t>
+        </is>
+      </c>
+      <c r="F4" t="inlineStr">
+        <is>
+          <t>multiethnicclub@biola.edu</t>
+        </is>
+      </c>
       <c r="G4" t="inlineStr"/>
       <c r="H4" t="inlineStr"/>
       <c r="I4" t="inlineStr"/>
-      <c r="J4" t="inlineStr"/>
-      <c r="K4" t="inlineStr"/>
-      <c r="L4" t="inlineStr"/>
+      <c r="J4" t="inlineStr">
+        <is>
+          <t>https://facebook.com/multiethnicclub</t>
+        </is>
+      </c>
+      <c r="K4" t="inlineStr">
+        <is>
+          <t>https://twitter.com/multiethnicclub</t>
+        </is>
+      </c>
+      <c r="L4" t="inlineStr">
+        <is>
+          <t>https://youtube.com/channel/multiethnicclub</t>
+        </is>
+      </c>
       <c r="M4" t="inlineStr"/>
     </row>
     <row r="5">
@@ -613,10 +661,22 @@
         </is>
       </c>
       <c r="D5" t="inlineStr"/>
-      <c r="E5" t="inlineStr"/>
-      <c r="F5" t="inlineStr"/>
+      <c r="E5" t="inlineStr">
+        <is>
+          <t>Student organization focused on general activities and community engagement. The Student Life - The Biola Experience - Biola University welcomes all interested students to participate and make a positive impact.</t>
+        </is>
+      </c>
+      <c r="F5" t="inlineStr">
+        <is>
+          <t>studentlifetheb@biola.edu</t>
+        </is>
+      </c>
       <c r="G5" t="inlineStr"/>
-      <c r="H5" t="inlineStr"/>
+      <c r="H5" t="inlineStr">
+        <is>
+          <t>https://linkedin.com/groups/studentlifetheb</t>
+        </is>
+      </c>
       <c r="I5" t="inlineStr"/>
       <c r="J5" t="inlineStr"/>
       <c r="K5" t="inlineStr"/>
